--- a/data/predictions/race/aff_act_hrt_wht/leveled/other.xlsx
+++ b/data/predictions/race/aff_act_hrt_wht/leveled/other.xlsx
@@ -712,7 +712,7 @@
         <v>0.1201209211416848</v>
       </c>
       <c r="G34">
-        <v>0.363871947170428</v>
+        <v>0.3043108070083355</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -726,7 +726,7 @@
         <v>0.104239085871043</v>
       </c>
       <c r="G35">
-        <v>0.363871947170428</v>
+        <v>0.3798746382573264</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -740,7 +740,7 @@
         <v>0.09015321211598555</v>
       </c>
       <c r="G36">
-        <v>0.363871947170428</v>
+        <v>0.4203101613086198</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -754,7 +754,7 @@
         <v>0.07703564692597319</v>
       </c>
       <c r="G37">
-        <v>0.363871947170428</v>
+        <v>0.3782173473423951</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -768,7 +768,7 @@
         <v>0.06444015387893462</v>
       </c>
       <c r="G38">
-        <v>0.363871947170428</v>
+        <v>0.4605936940542114</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -782,7 +782,7 @@
         <v>0.05212614065383335</v>
       </c>
       <c r="G39">
-        <v>0.363871947170428</v>
+        <v>0.4427489463012804</v>
       </c>
     </row>
   </sheetData>
